--- a/docs/tp/Ricerca.xlsx
+++ b/docs/tp/Ricerca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE3DEB-3D5B-4E7E-B910-23925878E9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312F6E3-84D4-486E-A195-B0B8E7684488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
   <si>
     <t>Design</t>
   </si>
@@ -96,9 +96,6 @@
 - le ultime 3 pagine visitate (nome della funzionalità + relativa landing)
 - gli ultimi 3 clienti visualizzati (nome o denom.sociale + comune di residenza)
 - le ultime 3 polizze visualizzate (numero polizza, nome cliente, lob, premio)</t>
-  </si>
-  <si>
-    <t>Verifica Ricerca da Landing Page</t>
   </si>
   <si>
     <t>Verifica Atterraggio nella Pagina</t>
@@ -173,9 +170,6 @@
     <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca Da Switch Page</t>
   </si>
   <si>
-    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page</t>
-  </si>
-  <si>
     <t>MatrixWeb: Navigation Ricerca Risultati_Verifica Atterraggio nella Pagina</t>
   </si>
   <si>
@@ -204,6 +198,75 @@
   </si>
   <si>
     <t>MatrixWeb: Navigation Ricerca risultati MieInfo_Click sulla card di una circolare</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page Clients</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page Clients</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page Sales</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page Sales</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page Numbers</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page Numbers</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page BackOffice</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page BackOffice</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page News</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page News</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca_Verifica Ricerca da Landing Page Le mie info</t>
+  </si>
+  <si>
+    <t>Verifica Ricerca da Landing Page Le mie info</t>
+  </si>
+  <si>
+    <t>Verifica Click su Ricerca Polizze proposte</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca classica_Verifica Click su Ricerca Polizze proposte</t>
+  </si>
+  <si>
+    <t>Click su Ricerca Polizze proposte &gt; (se utenza hub: modale di disambiguazione: selezionare un'agenzia/profilo) e salto alla pagina di ricerca della DA.</t>
+  </si>
+  <si>
+    <t>Verifica Click su Ricerca Preventivi</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca classica_Verifica Click su Ricerca Preventivi</t>
+  </si>
+  <si>
+    <t>Click su Ricerca Preventivi &gt; (se utenza hub: modale di disambiguazione: selezionare un'agenzia/profilo) e salto alla pagina di ricerca della DA.</t>
+  </si>
+  <si>
+    <t>Verifica Click su Rubrica</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca classica_Verifica Click su Rubrica</t>
+  </si>
+  <si>
+    <t>Verifica Click su Ricerca News</t>
+  </si>
+  <si>
+    <t>Click su Ricerca News &gt; (se utenza hub: modale di disambiguazione: selezionare un'agenzia/profilo) e salto alla pagina di ricerca della DA.</t>
+  </si>
+  <si>
+    <t>MatrixWeb: Navigation Ricerca classica_Verifica Click su Ricerca News</t>
   </si>
 </sst>
 </file>
@@ -642,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +759,7 @@
     </row>
     <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -705,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
@@ -728,16 +791,16 @@
     </row>
     <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
@@ -758,323 +821,611 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/tp/Ricerca.xlsx
+++ b/docs/tp/Ricerca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312F6E3-84D4-486E-A195-B0B8E7684488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C61497-E31F-4DF0-83AC-849B8D4D54D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
   <si>
     <t>Design</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>MatrixWeb: Navigation Ricerca classica_Verifica Click su Ricerca News</t>
+  </si>
+  <si>
+    <t>BLOCKED:</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -390,6 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -705,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,35 +1401,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
